--- a/1. 《我为什么给你offer》夏云/3.JAVA后端开发JD.xlsx
+++ b/1. 《我为什么给你offer》夏云/3.JAVA后端开发JD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15180" windowHeight="12080" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="12080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="智联招聘" sheetId="1" r:id="rId1"/>
@@ -1206,7 +1206,7 @@
   <sheetPr/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
